--- a/biology/Zoologie/Catasticta_susiana/Catasticta_susiana.xlsx
+++ b/biology/Zoologie/Catasticta_susiana/Catasticta_susiana.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Catasticta susiana est une espèce d'insecte lépidoptère de la famille des Pieridae, de la sous-famille des Pierinae et du genre Catasticta.
 </t>
@@ -511,9 +523,11 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce a été décrite par l'entomologiste allemand Carl Heinrich Hopffer en 1874 sous le nom d'Euterpe susiana[1],[2]. Le nom complet du fait de l'existence d'un sous-genre est : Catasticta (Catasticta) susiana.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce a été décrite par l'entomologiste allemand Carl Heinrich Hopffer en 1874 sous le nom d'Euterpe susiana,. Le nom complet du fait de l'existence d'un sous-genre est : Catasticta (Catasticta) susiana.
 </t>
         </is>
       </c>
@@ -542,33 +556,35 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>L'espèce sert de chef de file à un groupe qui porte son nom.
 Il existe 8 sous-espèces :
 Catasticta (Catastica) susiana susiana
 Synonymie pour cette sous-espèce
-Catasticta plesseni (Röber, 1908)[3]
-Catasticta susiana tamboensis(Joicey &amp; Talbot, 1918)[4]
+Catasticta plesseni (Röber, 1908)
+Catasticta susiana tamboensis(Joicey &amp; Talbot, 1918)
 Synonymie pour cette sous-espèce
-Catasticta flisa tamboensis (Joicey &amp; Talbot, 1918)[5]
-Catasticta susiana amba (Brown, Gabriel &amp; Goodson, 1940)[6]
+Catasticta flisa tamboensis (Joicey &amp; Talbot, 1918)
+Catasticta susiana amba (Brown, Gabriel &amp; Goodson, 1940)
 Synonymie pour cette sous-espèce
-Catasticta loja (Reissinger, 1972)[7]
-Catasticta susiana igneata (Reissinger, 1972)[8]
+Catasticta loja (Reissinger, 1972)
+Catasticta susiana igneata (Reissinger, 1972)
 Synonymie pour cette sous-espèce
-Catasticta igneata (Reissinger, 1972)[7]
-Catasticta susiana acomayo (Reissinger, 1972)[9]
+Catasticta igneata (Reissinger, 1972)
+Catasticta susiana acomayo (Reissinger, 1972)
 Synonymie pour cette sous-espèce
-Catasticta acomayo (Reissinger, 1972)[10]
-Catasticta susiana roeberi (Reissinger, 1972)[9]
+Catasticta acomayo (Reissinger, 1972)
+Catasticta susiana roeberi (Reissinger, 1972)
 Synonymie pour cette sous-espèce
-Catasticta roeberi (Reissinger, 1972)[11]
-Catasticta sinapina subflava [8]
-Catasticta susiana sebundoia (Eitschberger &amp; Racheli, 1998)[12]
+Catasticta roeberi (Reissinger, 1972)
+Catasticta sinapina subflava 
+Catasticta susiana sebundoia (Eitschberger &amp; Racheli, 1998)
 Synonymie pour cette sous-espèce
-Catasticta susiana sebundoida[13]
-Catasticta susiana galbinea (Eitschberger &amp; Racheli, 1998)[14]</t>
+Catasticta susiana sebundoida
+Catasticta susiana galbinea (Eitschberger &amp; Racheli, 1998)</t>
         </is>
       </c>
     </row>
@@ -596,9 +612,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est un papillon d'une envergure de 35 mm à 50 mm de couleur blanche, beige ou jaune au dessus largement bordé de marron foncé, à base et bord costal des ailes antérieures du même marron foncé[15].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un papillon d'une envergure de 35 mm à 50 mm de couleur blanche, beige ou jaune au dessus largement bordé de marron foncé, à base et bord costal des ailes antérieures du même marron foncé.
 Le revers est à damiers blancs ou jaunes séparés par des veines et des damiers marron foncé.
 </t>
         </is>
@@ -625,12 +643,15 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Biologie</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Plantes hôtes</t>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Catasticta susiana est présent en Équateur et au Pérou.
+</t>
         </is>
       </c>
     </row>
@@ -655,12 +676,14 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Écologie et distribution</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Catasticta susiana est présent en Équateur et au Pérou[2].
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il réside sur le versant est des Andes entre 1 600 et 3 000 mètres.
 </t>
         </is>
       </c>
@@ -691,9 +714,13 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t xml:space="preserve">Il réside sur le versant est des Andes entre 1 600 et 3 000 mètres[15].
-Protection
-Pas de statut de protection particulier.
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier.
 </t>
         </is>
       </c>
